--- a/QA/Big_Omega_Project-Test Table.xlsx
+++ b/QA/Big_Omega_Project-Test Table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C5C8858-A059-4E97-969E-CE9DADAD85B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE99409-1F2C-440D-A00B-859FED9D8040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="to">Лист1!$M$9</definedName>
@@ -141,16 +142,16 @@
     <t>1111;</t>
   </si>
   <si>
-    <t>Test Cse (Pass/Fail</t>
-  </si>
-  <si>
     <t>(;</t>
   </si>
   <si>
     <t>`;</t>
   </si>
   <si>
-    <t>":{@0</t>
+    <t>":{@0;</t>
+  </si>
+  <si>
+    <t>Test Case (Pass/Fail</t>
   </si>
 </sst>
 </file>
@@ -831,7 +832,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,11 +919,11 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="18">
-        <v>44207</v>
+        <v>44272</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="9" t="s">
@@ -987,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -1009,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -1031,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1341,4 +1342,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2072D94-46CD-413B-A0B8-272013478597}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QA/Big_Omega_Project-Test Table.xlsx
+++ b/QA/Big_Omega_Project-Test Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE99409-1F2C-440D-A00B-859FED9D8040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD511E-652A-4891-BB3A-A619214D0551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t xml:space="preserve">Test Case ID        </t>
   </si>
@@ -152,6 +152,27 @@
   </si>
   <si>
     <t>Test Case (Pass/Fail</t>
+  </si>
+  <si>
+    <t>Function 2</t>
+  </si>
+  <si>
+    <t>2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                 +-;</t>
+  </si>
+  <si>
+    <t>10;</t>
+  </si>
+  <si>
+    <t>3333;</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>";</t>
   </si>
 </sst>
 </file>
@@ -831,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB326F57-61AB-4149-AD00-F1AB644DB795}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,12 +1367,514 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2072D94-46CD-413B-A0B8-272013478597}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="18">
+        <v>44272</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>-2</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="17">
+        <v>7</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="L12" s="17">
+        <v>8</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QA/Big_Omega_Project-Test Table.xlsx
+++ b/QA/Big_Omega_Project-Test Table.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD511E-652A-4891-BB3A-A619214D0551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D234DCE-38BD-4DED-BF0F-A7E6915F99F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="to">Лист1!$M$9</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
   <si>
     <t xml:space="preserve">Test Case ID        </t>
   </si>
@@ -173,6 +174,36 @@
   </si>
   <si>
     <t>";</t>
+  </si>
+  <si>
+    <t>Function 3</t>
+  </si>
+  <si>
+    <t>3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                 +;</t>
+  </si>
+  <si>
+    <t>113;</t>
+  </si>
+  <si>
+    <t>4;</t>
+  </si>
+  <si>
+    <t>*;</t>
+  </si>
+  <si>
+    <t>|;</t>
+  </si>
+  <si>
+    <t>*&amp;%;</t>
+  </si>
+  <si>
+    <t>3. Print Team/s</t>
+  </si>
+  <si>
+    <t>2. Print Teacher/s</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2072D94-46CD-413B-A0B8-272013478597}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,11 +1672,11 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1799,6 +1830,520 @@
       </c>
       <c r="B26" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269E0A8F-86C6-4E77-AA5F-79422E40A562}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="18">
+        <v>44272</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>-3</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="17">
+        <v>7</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="L12" s="17">
+        <v>8</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">

--- a/QA/Big_Omega_Project-Test Table.xlsx
+++ b/QA/Big_Omega_Project-Test Table.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D234DCE-38BD-4DED-BF0F-A7E6915F99F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D1F674-8C2B-45E8-8862-77157FC85656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
     <sheet name="Лист4" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="to">Лист1!$M$9</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="60">
   <si>
     <t xml:space="preserve">Test Case ID        </t>
   </si>
@@ -204,6 +205,21 @@
   </si>
   <si>
     <t>2. Print Teacher/s</t>
+  </si>
+  <si>
+    <t>Function 4</t>
+  </si>
+  <si>
+    <t>123;</t>
+  </si>
+  <si>
+    <t>41234;</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&amp;;</t>
   </si>
 </sst>
 </file>
@@ -1914,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269E0A8F-86C6-4E77-AA5F-79422E40A562}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,6 +2360,520 @@
       </c>
       <c r="B26" s="9" t="s">
         <v>45</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63603BA-1AD4-4D04-A82A-21A42F457128}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="18">
+        <v>44272</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>-4</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="17">
+        <v>7</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="L12" s="17">
+        <v>8</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">

--- a/QA/Big_Omega_Project-Test Table.xlsx
+++ b/QA/Big_Omega_Project-Test Table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D1F674-8C2B-45E8-8862-77157FC85656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92C9A73-D2EA-4A0B-8365-4B55CE900AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
     <sheet name="Лист4" sheetId="4" r:id="rId3"/>
     <sheet name="Лист5" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="to">Лист1!$M$9</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="65">
   <si>
     <t xml:space="preserve">Test Case ID        </t>
   </si>
@@ -220,6 +221,21 @@
   </si>
   <si>
     <t>&amp;;</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Function 5</t>
+  </si>
+  <si>
+    <t>5. Add Teacher/s</t>
+  </si>
+  <si>
+    <t>5;</t>
+  </si>
+  <si>
+    <t>13;</t>
   </si>
 </sst>
 </file>
@@ -2444,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63603BA-1AD4-4D04-A82A-21A42F457128}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2710,7 @@
       <c r="J16" s="32"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
@@ -2707,7 +2723,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>1</v>
       </c>
@@ -2730,7 +2746,7 @@
       <c r="J18" s="40"/>
       <c r="K18" s="44"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>2</v>
       </c>
@@ -2752,8 +2768,11 @@
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>3</v>
       </c>
@@ -2776,7 +2795,7 @@
       <c r="J20" s="40"/>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>4</v>
       </c>
@@ -2799,7 +2818,7 @@
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <v>5</v>
       </c>
@@ -2822,7 +2841,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="44"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>6</v>
       </c>
@@ -2845,7 +2864,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="38"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>7</v>
       </c>
@@ -2868,12 +2887,529 @@
       <c r="J25" s="40"/>
       <c r="K25" s="44"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>55</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0774A3CB-A436-4968-ABF0-D6C87D6C1557}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="18">
+        <v>44272</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>-5</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="17">
+        <v>7</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="L12" s="17">
+        <v>8</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">

--- a/QA/Big_Omega_Project-Test Table.xlsx
+++ b/QA/Big_Omega_Project-Test Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92C9A73-D2EA-4A0B-8365-4B55CE900AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D041AE3-7310-49F1-A88F-BB78E23F5F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Лист4" sheetId="4" r:id="rId3"/>
     <sheet name="Лист5" sheetId="5" r:id="rId4"/>
     <sheet name="Лист6" sheetId="6" r:id="rId5"/>
+    <sheet name="Лист7" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="to">Лист1!$M$9</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="69">
   <si>
     <t xml:space="preserve">Test Case ID        </t>
   </si>
@@ -236,6 +237,18 @@
   </si>
   <si>
     <t>13;</t>
+  </si>
+  <si>
+    <t>Function 6</t>
+  </si>
+  <si>
+    <t>6. Add Team/s</t>
+  </si>
+  <si>
+    <t>6;</t>
+  </si>
+  <si>
+    <t>16;</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1960,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:Q26"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,7 +2474,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:Q26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0774A3CB-A436-4968-ABF0-D6C87D6C1557}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,6 +3423,520 @@
       </c>
       <c r="B26" s="9" t="s">
         <v>61</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EF793-D05E-4BE6-AB4C-8C14DC8FEA52}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="18">
+        <v>44272</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>-6</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="17">
+        <v>7</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="L12" s="17">
+        <v>8</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">

--- a/QA/Big_Omega_Project-Test Table.xlsx
+++ b/QA/Big_Omega_Project-Test Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D041AE3-7310-49F1-A88F-BB78E23F5F63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA5EF43-7ECA-48BC-8CF6-BBD246D093C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{B391B523-F954-4CD5-9C14-21981E3766E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Лист5" sheetId="5" r:id="rId4"/>
     <sheet name="Лист6" sheetId="6" r:id="rId5"/>
     <sheet name="Лист7" sheetId="7" r:id="rId6"/>
+    <sheet name="Лист8" sheetId="8" r:id="rId7"/>
+    <sheet name="Лист9" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="to">Лист1!$M$9</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="99">
   <si>
     <t xml:space="preserve">Test Case ID        </t>
   </si>
@@ -116,15 +118,6 @@
     <t xml:space="preserve"> Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>To print  Student/s</t>
-  </si>
-  <si>
-    <t>Print  Student/s</t>
-  </si>
-  <si>
-    <t>Function 1</t>
-  </si>
-  <si>
     <t>To stop the exe.</t>
   </si>
   <si>
@@ -158,9 +151,6 @@
     <t>Test Case (Pass/Fail</t>
   </si>
   <si>
-    <t>Function 2</t>
-  </si>
-  <si>
     <t>2;</t>
   </si>
   <si>
@@ -179,9 +169,6 @@
     <t>";</t>
   </si>
   <si>
-    <t>Function 3</t>
-  </si>
-  <si>
     <t>3;</t>
   </si>
   <si>
@@ -203,15 +190,6 @@
     <t>*&amp;%;</t>
   </si>
   <si>
-    <t>3. Print Team/s</t>
-  </si>
-  <si>
-    <t>2. Print Teacher/s</t>
-  </si>
-  <si>
-    <t>Function 4</t>
-  </si>
-  <si>
     <t>123;</t>
   </si>
   <si>
@@ -227,9 +205,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>Function 5</t>
-  </si>
-  <si>
     <t>5. Add Teacher/s</t>
   </si>
   <si>
@@ -239,16 +214,133 @@
     <t>13;</t>
   </si>
   <si>
-    <t>Function 6</t>
-  </si>
-  <si>
-    <t>6. Add Team/s</t>
-  </si>
-  <si>
-    <t>6;</t>
-  </si>
-  <si>
-    <t>16;</t>
+    <t xml:space="preserve"> 1.Printing</t>
+  </si>
+  <si>
+    <t>Go to printing menu</t>
+  </si>
+  <si>
+    <t>2.Adding</t>
+  </si>
+  <si>
+    <t>Open adding menu</t>
+  </si>
+  <si>
+    <t>3.Editing</t>
+  </si>
+  <si>
+    <t>Open editing menu</t>
+  </si>
+  <si>
+    <t>4.Deletion</t>
+  </si>
+  <si>
+    <t>Open deletion menu</t>
+  </si>
+  <si>
+    <t>Openned deletion menu</t>
+  </si>
+  <si>
+    <t>Openned editing menu</t>
+  </si>
+  <si>
+    <t>openned adding menu</t>
+  </si>
+  <si>
+    <t>opened printing menu</t>
+  </si>
+  <si>
+    <t>Printing menu-&gt;1</t>
+  </si>
+  <si>
+    <t>1.Students</t>
+  </si>
+  <si>
+    <t>Printing menu-&gt;</t>
+  </si>
+  <si>
+    <t>Printing menu-&gt;2</t>
+  </si>
+  <si>
+    <t>Printing menu-&gt;3</t>
+  </si>
+  <si>
+    <t>Printing menu-&gt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.Teachers</t>
+  </si>
+  <si>
+    <t>0;</t>
+  </si>
+  <si>
+    <t>1-&gt;1-&gt;0</t>
+  </si>
+  <si>
+    <t>One student</t>
+  </si>
+  <si>
+    <t>1-&gt;1-&gt;1</t>
+  </si>
+  <si>
+    <t>Multiple students</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All students</t>
+  </si>
+  <si>
+    <t>1-&gt;1-&gt;2</t>
+  </si>
+  <si>
+    <t>3.Teams</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>2-&gt;1</t>
+  </si>
+  <si>
+    <t>2.Teachers</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>2-&gt;2</t>
+  </si>
+  <si>
+    <t>2-&gt;3</t>
+  </si>
+  <si>
+    <t>2-&gt;0</t>
+  </si>
+  <si>
+    <t>3-&gt;1</t>
+  </si>
+  <si>
+    <t>3-&gt;0</t>
+  </si>
+  <si>
+    <t>3-&gt;3</t>
+  </si>
+  <si>
+    <t>3-&gt;2</t>
+  </si>
+  <si>
+    <t>0.Exit</t>
+  </si>
+  <si>
+    <t>4-&gt;1</t>
+  </si>
+  <si>
+    <t>4-&gt;0</t>
+  </si>
+  <si>
+    <t>4-&gt;3</t>
+  </si>
+  <si>
+    <t>4-&gt;2</t>
   </si>
 </sst>
 </file>
@@ -928,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB326F57-61AB-4149-AD00-F1AB644DB795}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:Q26"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1112,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="9" t="s">
@@ -1053,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1075,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -1085,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -1097,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -1107,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -1119,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -1129,7 +1221,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1199,15 +1291,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1222,15 +1314,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1245,15 +1337,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1268,15 +1360,15 @@
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1291,15 +1383,15 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1314,15 +1406,15 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1337,15 +1429,15 @@
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1360,15 +1452,15 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1446,7 +1538,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1626,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="9" t="s">
@@ -1567,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1589,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -1599,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -1611,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -1621,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -1633,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -1643,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -1713,15 +1805,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1736,15 +1828,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1759,15 +1851,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1782,15 +1874,15 @@
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1805,15 +1897,15 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1828,15 +1920,15 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1851,15 +1943,15 @@
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1874,15 +1966,15 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1960,7 +2052,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2140,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="9" t="s">
@@ -2081,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -2103,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -2113,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -2125,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -2135,7 +2227,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -2147,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -2157,7 +2249,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -2227,15 +2319,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2250,15 +2342,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2273,15 +2365,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2296,15 +2388,15 @@
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2319,15 +2411,15 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2342,15 +2434,15 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2365,15 +2457,15 @@
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2388,15 +2480,15 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -2474,7 +2566,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2654,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="9" t="s">
@@ -2595,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -2617,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -2627,7 +2719,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -2639,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -2649,7 +2741,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -2661,7 +2753,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -2671,7 +2763,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -2741,15 +2833,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2764,15 +2856,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2782,7 +2874,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2790,15 +2882,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2813,15 +2905,15 @@
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2836,15 +2928,15 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2859,15 +2951,15 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2882,15 +2974,15 @@
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2905,15 +2997,15 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -2991,7 +3083,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,7 +3171,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="9" t="s">
@@ -3112,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -3134,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -3156,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -3166,7 +3258,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -3178,7 +3270,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -3188,7 +3280,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -3258,15 +3350,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -3281,15 +3373,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -3299,7 +3391,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3307,15 +3399,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -3330,15 +3422,15 @@
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -3353,15 +3445,15 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -3376,15 +3468,15 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -3399,15 +3491,15 @@
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -3422,15 +3514,15 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -3507,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5EF793-D05E-4BE6-AB4C-8C14DC8FEA52}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3688,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="9" t="s">
@@ -3628,8 +3720,8 @@
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>67</v>
+      <c r="E9" s="23">
+        <v>1</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -3639,7 +3731,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="23">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
@@ -3650,18 +3742,18 @@
       <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
       <c r="L10" s="17">
         <v>6</v>
       </c>
       <c r="M10" s="23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -3672,8 +3764,8 @@
       <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>68</v>
+      <c r="E11" s="23">
+        <v>3</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -3682,8 +3774,8 @@
       <c r="L11" s="17">
         <v>7</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>59</v>
+      <c r="M11" s="23">
+        <v>2</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -3695,7 +3787,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -3705,7 +3797,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
@@ -3775,15 +3867,15 @@
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -3798,15 +3890,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -3821,15 +3913,15 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -3844,15 +3936,15 @@
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -3867,15 +3959,15 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -3890,15 +3982,15 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -3913,15 +4005,15 @@
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -3935,22 +4027,1044 @@
       <c r="A26" s="17">
         <v>8</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="38" t="s">
         <v>11</v>
       </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3005E8D1-3651-47FE-930E-029466E58192}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="18">
+        <v>44272</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>1</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23">
+        <v>2</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23">
+        <v>3</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="17">
+        <v>7</v>
+      </c>
+      <c r="M11" s="23">
+        <v>3</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="L12" s="17">
+        <v>8</v>
+      </c>
+      <c r="M12" s="23">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C2B45F-D4B8-4AA2-836E-E4F00F21D870}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="12"/>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="18">
+        <v>44272</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="L8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+      <c r="M9" s="23">
+        <v>-6</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23">
+        <v>3</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="L11" s="17">
+        <v>7</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="17">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="L12" s="17">
+        <v>8</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>7</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
     </row>
